--- a/table/brms_full_model_results.xlsx
+++ b/table/brms_full_model_results.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcblauert/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marcblauert/Documents/01_Studium/00_INRM/05_MaThesis/MaThesisWriting/table/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB82390E-DA1F-8B4A-ABF1-0BA5BBAA0E49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E6A7ED3-4C4E-FD43-85E5-7C87FDA22F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{41CDF4F7-ED31-5048-8318-531B3927EF85}"/>
+    <workbookView xWindow="10360" yWindow="500" windowWidth="28040" windowHeight="16300" xr2:uid="{41CDF4F7-ED31-5048-8318-531B3927EF85}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="218">
   <si>
     <t>Estimate</t>
   </si>
@@ -680,6 +680,15 @@
   </si>
   <si>
     <t>687</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Oil</t>
+  </si>
+  <si>
+    <t>District heating</t>
   </si>
 </sst>
 </file>
@@ -712,12 +721,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -761,7 +782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -787,6 +808,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1101,10 +1127,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60294459-61F2-A242-A21F-15F980F1ED9E}">
-  <dimension ref="A2:T84"/>
+  <dimension ref="A2:T88"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H84" sqref="A1:H84"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A57" workbookViewId="0">
+      <selection activeCell="B88" sqref="B88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2545,16 +2571,16 @@
       <c r="A70" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B70" s="6" t="s">
+      <c r="B70" s="15" t="s">
         <v>35</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D70" s="6" t="s">
+      <c r="D70" s="15" t="s">
         <v>177</v>
       </c>
-      <c r="E70" s="6" t="s">
+      <c r="E70" s="15" t="s">
         <v>36</v>
       </c>
       <c r="F70" s="6" t="s">
@@ -2749,16 +2775,16 @@
       <c r="A76" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B76" s="6" t="s">
+      <c r="B76" s="15" t="s">
         <v>202</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D76" s="6" t="s">
+      <c r="D76" s="15" t="s">
         <v>203</v>
       </c>
-      <c r="E76" s="6" t="s">
+      <c r="E76" s="15" t="s">
         <v>204</v>
       </c>
       <c r="F76" s="6" t="s">
@@ -2783,16 +2809,16 @@
       <c r="A77" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="B77" s="6" t="s">
+      <c r="B77" s="15" t="s">
         <v>124</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D77" s="6" t="s">
+      <c r="D77" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="E77" s="6" t="s">
+      <c r="E77" s="15" t="s">
         <v>207</v>
       </c>
       <c r="F77" s="6" t="s">
@@ -2945,6 +2971,58 @@
         <v>211</v>
       </c>
     </row>
+    <row r="86" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>215</v>
+      </c>
+      <c r="B86" s="16">
+        <f>-0.35</f>
+        <v>-0.35</v>
+      </c>
+      <c r="C86" s="16"/>
+      <c r="D86" s="16">
+        <v>-0.4</v>
+      </c>
+      <c r="E86" s="16">
+        <v>-0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="87" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>216</v>
+      </c>
+      <c r="B87" s="17">
+        <f>B86+0.19</f>
+        <v>-0.15999999999999998</v>
+      </c>
+      <c r="C87" s="17"/>
+      <c r="D87" s="17">
+        <f>B87+0.06</f>
+        <v>-9.9999999999999978E-2</v>
+      </c>
+      <c r="E87" s="17">
+        <f>B87-0.07</f>
+        <v>-0.22999999999999998</v>
+      </c>
+    </row>
+    <row r="88" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>217</v>
+      </c>
+      <c r="B88" s="16">
+        <f>B86-0.18</f>
+        <v>-0.53</v>
+      </c>
+      <c r="C88" s="16"/>
+      <c r="D88" s="16">
+        <f>B88-0.07</f>
+        <v>-0.60000000000000009</v>
+      </c>
+      <c r="E88" s="16">
+        <f>B88+0.07</f>
+        <v>-0.46</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
